--- a/frontend/intial.xlsx
+++ b/frontend/intial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumaran\Desktop\BV_Finance_Project\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6514BEC2-D5BF-4308-8A80-46EE86601A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A4C984-0452-496E-91E2-CF1848EFC4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{969800BF-AAC2-41B7-8625-4FBA9634BE3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{969800BF-AAC2-41B7-8625-4FBA9634BE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
@@ -60,46 +57,49 @@
     <t>principal</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n </t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>willey</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>virat</t>
+  </si>
+  <si>
+    <t>dhoni</t>
+  </si>
+  <si>
+    <t>striver</t>
+  </si>
+  <si>
+    <t>hermoine</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>weasley</t>
+  </si>
+  <si>
+    <t>leena</t>
+  </si>
+  <si>
+    <t>yam</t>
+  </si>
+  <si>
+    <t>kumaran</t>
+  </si>
+  <si>
+    <t>vani</t>
+  </si>
+  <si>
+    <t>yuvi</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,28 +466,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
